--- a/tests/testthat/goodValues/OutputReport/dataset03.xlsx
+++ b/tests/testthat/goodValues/OutputReport/dataset03.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun/30/2019</t>
+    <t xml:space="preserve">Jul/11/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>
